--- a/Data_frame/balancos_definitivos/BUET4.xlsx
+++ b/Data_frame/balancos_definitivos/BUET4.xlsx
@@ -12988,7 +12988,7 @@
         <v>43678</v>
       </c>
       <c r="AF57" t="n">
-        <v>44888</v>
+        <v>44888.008</v>
       </c>
       <c r="AG57" t="n">
         <v>44436</v>
@@ -13047,69 +13047,27 @@
       <c r="AY57" t="n">
         <v>27130</v>
       </c>
-      <c r="AZ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT57" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ57" t="inlineStr"/>
+      <c r="BA57" t="inlineStr"/>
+      <c r="BB57" t="inlineStr"/>
+      <c r="BC57" t="inlineStr"/>
+      <c r="BD57" t="inlineStr"/>
+      <c r="BE57" t="inlineStr"/>
+      <c r="BF57" t="inlineStr"/>
+      <c r="BG57" t="inlineStr"/>
+      <c r="BH57" t="inlineStr"/>
+      <c r="BI57" t="inlineStr"/>
+      <c r="BJ57" t="inlineStr"/>
+      <c r="BK57" t="inlineStr"/>
+      <c r="BL57" t="inlineStr"/>
+      <c r="BM57" t="inlineStr"/>
+      <c r="BN57" t="inlineStr"/>
+      <c r="BO57" t="inlineStr"/>
+      <c r="BP57" t="inlineStr"/>
+      <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
+      <c r="BS57" t="inlineStr"/>
+      <c r="BT57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13263,69 +13221,27 @@
       <c r="AY58" t="n">
         <v>-3300</v>
       </c>
-      <c r="AZ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT58" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ58" t="inlineStr"/>
+      <c r="BA58" t="inlineStr"/>
+      <c r="BB58" t="inlineStr"/>
+      <c r="BC58" t="inlineStr"/>
+      <c r="BD58" t="inlineStr"/>
+      <c r="BE58" t="inlineStr"/>
+      <c r="BF58" t="inlineStr"/>
+      <c r="BG58" t="inlineStr"/>
+      <c r="BH58" t="inlineStr"/>
+      <c r="BI58" t="inlineStr"/>
+      <c r="BJ58" t="inlineStr"/>
+      <c r="BK58" t="inlineStr"/>
+      <c r="BL58" t="inlineStr"/>
+      <c r="BM58" t="inlineStr"/>
+      <c r="BN58" t="inlineStr"/>
+      <c r="BO58" t="inlineStr"/>
+      <c r="BP58" t="inlineStr"/>
+      <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
+      <c r="BS58" t="inlineStr"/>
+      <c r="BT58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14442,72 +14358,28 @@
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ64" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AU64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr"/>
+      <c r="AX64" t="inlineStr"/>
+      <c r="AY64" t="inlineStr"/>
+      <c r="AZ64" t="inlineStr"/>
       <c r="BA64" t="n">
         <v>0</v>
       </c>
@@ -16017,69 +15889,27 @@
       <c r="AY71" t="n">
         <v>0</v>
       </c>
-      <c r="AZ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT71" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ71" t="inlineStr"/>
+      <c r="BA71" t="inlineStr"/>
+      <c r="BB71" t="inlineStr"/>
+      <c r="BC71" t="inlineStr"/>
+      <c r="BD71" t="inlineStr"/>
+      <c r="BE71" t="inlineStr"/>
+      <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="inlineStr"/>
+      <c r="BH71" t="inlineStr"/>
+      <c r="BI71" t="inlineStr"/>
+      <c r="BJ71" t="inlineStr"/>
+      <c r="BK71" t="inlineStr"/>
+      <c r="BL71" t="inlineStr"/>
+      <c r="BM71" t="inlineStr"/>
+      <c r="BN71" t="inlineStr"/>
+      <c r="BO71" t="inlineStr"/>
+      <c r="BP71" t="inlineStr"/>
+      <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
+      <c r="BS71" t="inlineStr"/>
+      <c r="BT71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16233,69 +16063,27 @@
       <c r="AY72" t="n">
         <v>0</v>
       </c>
-      <c r="AZ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT72" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ72" t="inlineStr"/>
+      <c r="BA72" t="inlineStr"/>
+      <c r="BB72" t="inlineStr"/>
+      <c r="BC72" t="inlineStr"/>
+      <c r="BD72" t="inlineStr"/>
+      <c r="BE72" t="inlineStr"/>
+      <c r="BF72" t="inlineStr"/>
+      <c r="BG72" t="inlineStr"/>
+      <c r="BH72" t="inlineStr"/>
+      <c r="BI72" t="inlineStr"/>
+      <c r="BJ72" t="inlineStr"/>
+      <c r="BK72" t="inlineStr"/>
+      <c r="BL72" t="inlineStr"/>
+      <c r="BM72" t="inlineStr"/>
+      <c r="BN72" t="inlineStr"/>
+      <c r="BO72" t="inlineStr"/>
+      <c r="BP72" t="inlineStr"/>
+      <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
+      <c r="BS72" t="inlineStr"/>
+      <c r="BT72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16449,69 +16237,27 @@
       <c r="AY73" t="n">
         <v>0</v>
       </c>
-      <c r="AZ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT73" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ73" t="inlineStr"/>
+      <c r="BA73" t="inlineStr"/>
+      <c r="BB73" t="inlineStr"/>
+      <c r="BC73" t="inlineStr"/>
+      <c r="BD73" t="inlineStr"/>
+      <c r="BE73" t="inlineStr"/>
+      <c r="BF73" t="inlineStr"/>
+      <c r="BG73" t="inlineStr"/>
+      <c r="BH73" t="inlineStr"/>
+      <c r="BI73" t="inlineStr"/>
+      <c r="BJ73" t="inlineStr"/>
+      <c r="BK73" t="inlineStr"/>
+      <c r="BL73" t="inlineStr"/>
+      <c r="BM73" t="inlineStr"/>
+      <c r="BN73" t="inlineStr"/>
+      <c r="BO73" t="inlineStr"/>
+      <c r="BP73" t="inlineStr"/>
+      <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
+      <c r="BS73" t="inlineStr"/>
+      <c r="BT73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17313,69 +17059,27 @@
       <c r="AY77" t="n">
         <v>0</v>
       </c>
-      <c r="AZ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT77" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ77" t="inlineStr"/>
+      <c r="BA77" t="inlineStr"/>
+      <c r="BB77" t="inlineStr"/>
+      <c r="BC77" t="inlineStr"/>
+      <c r="BD77" t="inlineStr"/>
+      <c r="BE77" t="inlineStr"/>
+      <c r="BF77" t="inlineStr"/>
+      <c r="BG77" t="inlineStr"/>
+      <c r="BH77" t="inlineStr"/>
+      <c r="BI77" t="inlineStr"/>
+      <c r="BJ77" t="inlineStr"/>
+      <c r="BK77" t="inlineStr"/>
+      <c r="BL77" t="inlineStr"/>
+      <c r="BM77" t="inlineStr"/>
+      <c r="BN77" t="inlineStr"/>
+      <c r="BO77" t="inlineStr"/>
+      <c r="BP77" t="inlineStr"/>
+      <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
+      <c r="BS77" t="inlineStr"/>
+      <c r="BT77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17529,69 +17233,27 @@
       <c r="AY78" t="n">
         <v>0</v>
       </c>
-      <c r="AZ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT78" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ78" t="inlineStr"/>
+      <c r="BA78" t="inlineStr"/>
+      <c r="BB78" t="inlineStr"/>
+      <c r="BC78" t="inlineStr"/>
+      <c r="BD78" t="inlineStr"/>
+      <c r="BE78" t="inlineStr"/>
+      <c r="BF78" t="inlineStr"/>
+      <c r="BG78" t="inlineStr"/>
+      <c r="BH78" t="inlineStr"/>
+      <c r="BI78" t="inlineStr"/>
+      <c r="BJ78" t="inlineStr"/>
+      <c r="BK78" t="inlineStr"/>
+      <c r="BL78" t="inlineStr"/>
+      <c r="BM78" t="inlineStr"/>
+      <c r="BN78" t="inlineStr"/>
+      <c r="BO78" t="inlineStr"/>
+      <c r="BP78" t="inlineStr"/>
+      <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
+      <c r="BS78" t="inlineStr"/>
+      <c r="BT78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17628,132 +17290,48 @@
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT79" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
+      <c r="AO79" t="inlineStr"/>
+      <c r="AP79" t="inlineStr"/>
+      <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="inlineStr"/>
+      <c r="AS79" t="inlineStr"/>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AU79" t="inlineStr"/>
+      <c r="AV79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr"/>
+      <c r="AX79" t="inlineStr"/>
+      <c r="AY79" t="inlineStr"/>
+      <c r="AZ79" t="inlineStr"/>
+      <c r="BA79" t="inlineStr"/>
+      <c r="BB79" t="inlineStr"/>
+      <c r="BC79" t="inlineStr"/>
+      <c r="BD79" t="inlineStr"/>
+      <c r="BE79" t="inlineStr"/>
+      <c r="BF79" t="inlineStr"/>
+      <c r="BG79" t="inlineStr"/>
+      <c r="BH79" t="inlineStr"/>
+      <c r="BI79" t="inlineStr"/>
+      <c r="BJ79" t="inlineStr"/>
+      <c r="BK79" t="inlineStr"/>
+      <c r="BL79" t="inlineStr"/>
+      <c r="BM79" t="inlineStr"/>
+      <c r="BN79" t="inlineStr"/>
+      <c r="BO79" t="inlineStr"/>
+      <c r="BP79" t="inlineStr"/>
+      <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
+      <c r="BS79" t="inlineStr"/>
+      <c r="BT79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
